--- a/results/allen_summary.xlsx
+++ b/results/allen_summary.xlsx
@@ -12469,10 +12469,10 @@
         <v>24.68571428571429</v>
       </c>
       <c r="D2" t="n">
-        <v>1.155938498396889</v>
+        <v>15.6141048863864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.456671173202291</v>
+        <v>5.622728442676106</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
@@ -12491,10 +12491,10 @@
         <v>25.25714285714286</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7701945837495853</v>
+        <v>12.22138958725135</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1212605177459536</v>
+        <v>1.52180967755914</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -12513,10 +12513,10 @@
         <v>17.82857142857143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6195399401895713</v>
+        <v>9.51696044035265</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1870463335882612</v>
+        <v>2.666362907327805</v>
       </c>
       <c r="F4" t="n">
         <v>9</v>
@@ -12535,10 +12535,10 @@
         <v>15.77142857142857</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3355057022364332</v>
+        <v>5.093642223710002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1475737417462415</v>
+        <v>2.140520558879759</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
@@ -12557,10 +12557,10 @@
         <v>5.257142857142857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2469158173111697</v>
+        <v>3.356623266277428</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0987303053062674</v>
+        <v>1.359388189710772</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
@@ -12579,10 +12579,10 @@
         <v>4.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20333835821265</v>
+        <v>2.934856744684876</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1285396035158498</v>
+        <v>1.868739453365071</v>
       </c>
       <c r="F7" t="n">
         <v>9</v>
@@ -12601,10 +12601,10 @@
         <v>6.171428571428572</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1921879933636674</v>
+        <v>2.754566794272241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04943883136320429</v>
+        <v>0.7173959667245393</v>
       </c>
       <c r="F8" t="n">
         <v>9</v>
@@ -12623,10 +12623,10 @@
         <v>0.2285714285714286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003600674917259576</v>
+        <v>0.05101621284821026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002384916959417214</v>
+        <v>0.03398492069524234</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
@@ -34559,10 +34559,10 @@
         <v>50.17201834862385</v>
       </c>
       <c r="D2" t="n">
-        <v>3.527221568377226</v>
+        <v>51.54316015578316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6332175417351686</v>
+        <v>6.159699068048645</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
@@ -34581,10 +34581,10 @@
         <v>49.82798165137615</v>
       </c>
       <c r="D3" t="n">
-        <v>2.474302893558896</v>
+        <v>41.73969779255714</v>
       </c>
       <c r="E3" t="n">
-        <v>0.429826481485525</v>
+        <v>6.71931397554233</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -34622,7 +34622,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count_pct_brain</t>
+          <t>count_pct_thalamus</t>
         </is>
       </c>
     </row>
@@ -34638,7 +34638,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.272295693455409</v>
+        <v>48.98477157360406</v>
       </c>
     </row>
     <row r="3">
@@ -34653,7 +34653,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.358208955223881</v>
+        <v>63.47826086956522</v>
       </c>
     </row>
     <row r="4">
@@ -34668,7 +34668,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.065512978986403</v>
+        <v>57.94392523364485</v>
       </c>
     </row>
     <row r="5">
@@ -34683,7 +34683,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.208333333333333</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="6">
@@ -34698,7 +34698,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4953998584571833</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -34713,7 +34713,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.037567653613499</v>
+        <v>36.57142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -34728,7 +34728,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.824902723735408</v>
+        <v>59.90338164251207</v>
       </c>
     </row>
     <row r="9">
@@ -34743,7 +34743,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.582278481012658</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="10">
@@ -34758,7 +34758,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.900494437577256</v>
+        <v>25.25667351129363</v>
       </c>
     </row>
     <row r="11">
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.085791793828417</v>
+        <v>46.19289340101523</v>
       </c>
     </row>
     <row r="12">
@@ -34788,7 +34788,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.029850746268657</v>
+        <v>29.56521739130435</v>
       </c>
     </row>
     <row r="13">
@@ -34803,7 +34803,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.878862793572311</v>
+        <v>35.51401869158878</v>
       </c>
     </row>
     <row r="14">
@@ -34818,7 +34818,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.309782608695652</v>
+        <v>27.71739130434782</v>
       </c>
     </row>
     <row r="15">
@@ -34833,7 +34833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.203113941967445</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -34848,7 +34848,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.279210442534225</v>
+        <v>58.85714285714286</v>
       </c>
     </row>
     <row r="17">
@@ -34863,7 +34863,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.373540856031128</v>
+        <v>29.46859903381642</v>
       </c>
     </row>
     <row r="18">
@@ -34878,7 +34878,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8860759493670887</v>
+        <v>10.9375</v>
       </c>
     </row>
     <row r="19">
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.222496909765142</v>
+        <v>69.40451745379877</v>
       </c>
     </row>
   </sheetData>
